--- a/helperfiles/Prey_Key_Comments.xlsx
+++ b/helperfiles/Prey_Key_Comments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/SOFA2/SOFA/helperfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{479E058C-EDFC-4B08-996F-0C0FEAA1A8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{206626FA-1647-4DA1-8800-289709F94209}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{479E058C-EDFC-4B08-996F-0C0FEAA1A8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11DCFE25-5DDB-4B31-AE02-B4BE39C62932}"/>
   <bookViews>
-    <workbookView xWindow="34275" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{8A50F331-599A-4FF6-9C19-63B062338315}"/>
+    <workbookView xWindow="30495" yWindow="1170" windowWidth="24150" windowHeight="14760" xr2:uid="{8A50F331-599A-4FF6-9C19-63B062338315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,12 +57,6 @@
     <t>Select prey species from the list of available species in the prey library (see 4th worksheet for details). Select just the "correct" species if available, otherwise select one or more proxy prey species. You can weight certain species more heavily by entering them 2x</t>
   </si>
   <si>
-    <t>Enter a list of mutually exclusive prey types for analysis, with a unique code for each. You should limit the number of possible prey types such that each type is represented by a reasonable number of instances in the data set (see "N" nolumn in previous worksheet: a minimum of 25 is a good rule of thumb, at least 50 preferred).  Thus prey codes with few observations should be combined into a single prey type.  NOTE: The LAST item in this list must be "UNID" for un-identified prey</t>
-  </si>
-  <si>
-    <t>Add a sequential integer for each prey type - the LAST value should be associated with the "UNID" prey type</t>
-  </si>
-  <si>
     <t>Select a prey class for each prey type: refer to list in next worksheet for a complete list of possible prey classes. Leave this blank for "UNID" prey type</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Add a description for each prey code if desired (taxa name or general descriptor)</t>
+  </si>
+  <si>
+    <t>Add a sequential integer for each unique prey type. Note that the FIRST row is reserved for the "UNID" prey type, with TypeN value of 0. Begin adding prey types on subsequent rows, with TypeN values of 1, 2… etc.</t>
+  </si>
+  <si>
+    <t>Enter a list of mutually exclusive prey types for analysis, with a unique 3 or 4 letter code for each. You should limit the number of possible prey types such that each type is represented by a reasonable number of instances in the data set (see "N" nolumn in previous worksheet: a minimum of 25 is a good rule of thumb, at least 50 preferred).  Thus prey codes with few observations should be combined into a single prey type.  NOTE: The FIRST row is reserved for the "UNID" prey type (un-identified prey): leave this as-is.</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/helperfiles/Prey_Key_Comments.xlsx
+++ b/helperfiles/Prey_Key_Comments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26362cec7e0913ab/Documents/Nhydra/Projects/SOFA2/SOFA/helperfiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhydra-my.sharepoint.com/personal/ttinker_nhydra-eco_com/Documents/SOFA2/SOFA/helperfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{479E058C-EDFC-4B08-996F-0C0FEAA1A8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{11DCFE25-5DDB-4B31-AE02-B4BE39C62932}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{479E058C-EDFC-4B08-996F-0C0FEAA1A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC657509-4D2F-4F46-B876-DE37176DB0D8}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="1170" windowWidth="24150" windowHeight="14760" xr2:uid="{8A50F331-599A-4FF6-9C19-63B062338315}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="38805" windowHeight="18315" xr2:uid="{8A50F331-599A-4FF6-9C19-63B062338315}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Comment</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Enter a list of mutually exclusive prey types for analysis, with a unique 3 or 4 letter code for each. You should limit the number of possible prey types such that each type is represented by a reasonable number of instances in the data set (see "N" nolumn in previous worksheet: a minimum of 25 is a good rule of thumb, at least 50 preferred).  Thus prey codes with few observations should be combined into a single prey type.  NOTE: The FIRST row is reserved for the "UNID" prey type (un-identified prey): leave this as-is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If desired, enter minimum size (mm) for items of this prey type </t>
   </si>
 </sst>
 </file>
@@ -125,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -271,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D70958F-E336-4A0B-A12D-8F8727A902F9}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +521,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
